--- a/beadando/beadando.xlsx
+++ b/beadando/beadando.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tulok\egyetem\2.felev\adat\3.ora\adatbazis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tulok\egyetem\2.felev\adat\3.ora\adatbazis\beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783ACE17-8CED-4A98-BF80-2EE6E169538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3097A9AF-0A9C-4A38-ABB9-FABBF8CF08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C8FDE04-4FE8-4FCD-982D-7BAA593F1660}"/>
   </bookViews>
@@ -1466,6 +1466,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Napok</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> száma</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7883,8 +7943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E2D7F3-1486-4BFF-B2FA-3167B1CE5EB3}">
   <dimension ref="A2:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/beadando/beadando.xlsx
+++ b/beadando/beadando.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tulok\egyetem\2.felev\adat\3.ora\adatbazis\beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3097A9AF-0A9C-4A38-ABB9-FABBF8CF08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3B4D0D-6D4A-487C-9D02-27042C3BD5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C8FDE04-4FE8-4FCD-982D-7BAA593F1660}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>zoltan4</t>
   </si>
   <si>
-    <t>kata</t>
-  </si>
-  <si>
     <t>akos</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>balint1</t>
+  </si>
+  <si>
+    <t>eszter2</t>
   </si>
 </sst>
 </file>
@@ -2195,16 +2195,16 @@
                   <c:v>zoltan4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>kata</c:v>
+                  <c:v>akos</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>akos</c:v>
+                  <c:v>balazs2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>balazs2</c:v>
+                  <c:v>balint1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>balint1</c:v>
+                  <c:v>eszter2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7943,8 +7943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E2D7F3-1486-4BFF-B2FA-3167B1CE5EB3}">
   <dimension ref="A2:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
